--- a/project/uploads/93/split_output/14标记铭牌.xlsx
+++ b/project/uploads/93/split_output/14标记铭牌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A88018-6A25-44C4-9DCD-002F570C3985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5A3F4D-03E8-430A-AC3A-3CACBA925C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AFCA77D4-9507-45DA-9853-F5F741F960BB}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{879BDC90-C2A3-4C0E-B69D-2D7DC0A6657C}"/>
   </bookViews>
   <sheets>
     <sheet name="14标记铭牌" sheetId="1" r:id="rId1"/>
@@ -2053,7 +2053,7 @@
         <xdr:cNvPr id="2" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED4D8DD-CE10-4453-9686-B06404F41E1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1168DAD4-02BA-4838-8BCD-3F6FEC616AAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,8 +2076,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1617345" y="6602730"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1616075" y="6762750"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,7 +2118,7 @@
         <xdr:cNvPr id="3" name="CheckBox7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADEC173-F44B-48F8-AF89-DBFB0268F064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F5615B-25BE-456F-9A0C-8AE057B919BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,8 +2141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036570" y="6602730"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3035300" y="6762750"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,7 +2183,7 @@
         <xdr:cNvPr id="4" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40016BC6-5543-4B8D-B8DA-F6EC6E640DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82144A61-B9E5-49ED-93B6-6DA5CA8EC88A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,8 +2206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1588770" y="8966835"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1587500" y="9172575"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2235,15 +2235,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>480060</xdr:colOff>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2253,7 +2253,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0B8962-D2BB-4B82-888E-C29D7EACFB30}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81175889-5EE3-4D75-A179-29AD9474F5F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="5" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3419B6-083E-4776-8A18-10619B02FDF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45880FB3-1D2B-43C5-8F26-C3CDE66DC916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,8 +2334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1626870" y="613410"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1625600" y="628650"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2376,7 +2376,7 @@
         <xdr:cNvPr id="6" name="CheckBox10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2547F41A-2A51-468F-83F6-4B2EED40FD15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447C0FB2-6DFB-49DF-8EC5-B5182326946F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,8 +2399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1607820" y="7216140"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1606550" y="7391400"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A71DF8-5690-4D46-82E1-D7EFFB78E55A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D297846-994A-42EB-89E9-159495A4FCE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +2457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="217170" y="9446895"/>
-          <a:ext cx="7426960" cy="4874260"/>
+          <a:off x="217170" y="9665335"/>
+          <a:ext cx="7425690" cy="4996180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2489,7 +2489,7 @@
         <xdr:cNvPr id="8" name="CheckBox10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798BE978-4434-4131-A834-99E1500C46CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6565591B-D139-4299-967C-F019D4631995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,8 +2512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1607820" y="7414260"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1606550" y="7594600"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,7 +2554,7 @@
         <xdr:cNvPr id="9" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E650E1B-95EA-42E4-B1DA-E0D1D43F1589}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710B1FD4-DCF5-4AC8-8049-5979FBE147F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,8 +2577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1629410" y="789305"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1628140" y="804545"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,7 +2619,7 @@
         <xdr:cNvPr id="10" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B905CC59-0BBA-4D62-A2F7-E02EA9CA8966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A8C1BF-21C2-44E5-9F20-0D63122CD1DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,8 +2642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1640205" y="1018540"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1638935" y="1043940"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2675,7 +2675,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>16842</xdr:colOff>
+      <xdr:colOff>72059</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
@@ -2684,7 +2684,7 @@
         <xdr:cNvPr id="11" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D2D281-946A-40E7-B84E-71CD724B4F17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E1A0C4-1AD9-4323-A8D0-571C83AC5DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,8 +2700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7781925" y="1971675"/>
-          <a:ext cx="7466965" cy="5226685"/>
+          <a:off x="7779385" y="2017395"/>
+          <a:ext cx="7466965" cy="5356225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2732,7 +2732,7 @@
         <xdr:cNvPr id="12" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BBA442-1366-49BD-A603-141ACC564EA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99884FAF-D939-4D07-9E1A-E5A9D434EE38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,8 +2755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1640205" y="1216660"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1638935" y="1247140"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,7 +2788,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86719</xdr:colOff>
+      <xdr:colOff>125371</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E57DF7-7D4D-4110-AF29-B34A5D0D1A6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CD1802-1B3B-4B5F-95B6-F5DA11141BB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,8 +2813,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8725535" y="291465"/>
-          <a:ext cx="5022850" cy="1752600"/>
+          <a:off x="8722995" y="296545"/>
+          <a:ext cx="5022850" cy="1798320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2845,7 +2845,7 @@
         <xdr:cNvPr id="14" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB62799B-79C1-4DA0-8335-6097385EB98A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA9B51A-CC33-42D4-93EB-4AE648EB125A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,8 +2861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1668145" y="3414395"/>
-          <a:ext cx="4036060" cy="2611755"/>
+          <a:off x="1666875" y="3490595"/>
+          <a:ext cx="4036060" cy="2677795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8473,7 +8473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93096972-8343-4E09-B233-ACDA12FBF480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D16C053-E203-4B51-B287-928C278D36AE}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8483,13 +8483,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8508,70 +8508,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -8583,75 +8583,75 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -8659,49 +8659,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>26</v>
@@ -8713,225 +8713,225 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" s="13" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="13" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
     </row>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="17"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
     </row>
-    <row r="83" spans="1:2" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A31"/>
@@ -8941,7 +8941,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{444E89E0-52AF-450B-ACB2-A7B31AE12C34}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{2DFCA636-58D6-4E04-A9A0-1C6AAC848EAF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -8956,15 +8956,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>327660</xdr:colOff>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>43</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>480060</xdr:colOff>
+                <xdr:colOff>476250</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
